--- a/start/satinfo copy 2.xlsx
+++ b/start/satinfo copy 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\AppData\Local\Temp\fz3temp-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C511F68C-345E-438B-9A65-A6E3C2DCD449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F620DB-5CC6-4146-B72A-1493AFECAFCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,7 +878,7 @@
   <dimension ref="A1:N1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1363,7 @@
       <c r="A13" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="14">
         <v>2020</v>
       </c>
       <c r="C13" s="13"/>
@@ -1401,7 +1401,7 @@
       <c r="A14" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="14">
         <v>2020</v>
       </c>
       <c r="C14" s="13"/>
